--- a/해커톤/최종규격/이승인_최종규격.xlsx
+++ b/해커톤/최종규격/이승인_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\최종규격\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D48F60-A8DD-4DD1-9552-FEC6E8A634BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10902BE3-E190-4875-97DA-F9DA0D276AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3450" windowWidth="48240" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,243 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>{보통날} 코스트코에서 장 보고🍖 따듯한 수영장이 딸린 독채 펜션에서🏊🏻‍♀️ 사랑하는 이들과 풍요로운 크리스마스🎄 WITH 갤럭시노트10</t>
-  </si>
-  <si>
-    <t>{보통날} 처돌이가 고양 스타필드 즐기는 방법이 궁금하시죠? 그렇죠? 다 알아요 WITH 포레오 루나3</t>
-  </si>
-  <si>
-    <t>{룸투어} 정기컨텐츠로 만들지도 모르는 집구조 뒤엎기 장인의 자취방 투어</t>
-  </si>
-  <si>
-    <t>{보통날} 반신욕기에서 브런치🍳 이케아 혼밥🙋🏻‍♀️ NEW 사무실 셀프 인테리어까지💃🏻 WITH 센텔라 드레싱 파우더</t>
-  </si>
-  <si>
-    <t>{이승인} 난로에 군고구마 굽고 What's in my BAG! ~틀어두고 딴짓하기 좋은 영상~</t>
-  </si>
-  <si>
-    <t>{이승인} 새 노트북 꾸미고 이불속에서 넷플릭스 보면서 귤 까먹기 WITH 에이수스 젠북</t>
-  </si>
-  <si>
-    <t>{보통날} 청소하고 씻고 치장하고 일하고 뿌앵이 돼서 전시회 가고 자는 하루</t>
-  </si>
-  <si>
-    <t>{이승인} 술 약속 준비부터 만취까지...🍺~옛날옛적 술주정 썰~</t>
-  </si>
-  <si>
-    <t>{7일습관} 모래주머니 차고 생활하면 다이어트가 될까? 🏃🏻‍♀️</t>
-  </si>
-  <si>
-    <t>{DIY둥} 혼밥 자취러를 위한 초미니 삼시세끼 양은식탁</t>
-  </si>
-  <si>
-    <t>{이승인} 가을옷 쇼핑하고 6공 다이어리에 코디북 꾸미기✨ WITH 에이블리 #무료나눔</t>
-  </si>
-  <si>
-    <t>{7일습관} 7년 아이폰 처돌의 도전 ~폴더폰의 멋을 아시나요~</t>
-  </si>
-  <si>
-    <t>{이승인} 같이 새장난감 정리해요! ~앤디의 방 업데이트 ver.2~</t>
-  </si>
-  <si>
-    <t>{이승인} 덕질로 가득 채운 주말 ~활력소로 현생 극복~</t>
-  </si>
-  <si>
-    <t>{손토비} 하리보 곰돌이 젤리를 셀프로! ~국산 제품 위주로 젤네일하기~</t>
-  </si>
-  <si>
-    <t>{보통날} 힘든 날 나를 보살피며 알차게 보내기 WITH 템포</t>
-  </si>
-  <si>
-    <t>{DIY둥} 직접 만드는 세련되고 깔끔한 은 귀걸이 ✨ ~잠 오는 영상~</t>
-  </si>
-  <si>
-    <t>{이승인} 또 또 또 살롱드레드</t>
-  </si>
-  <si>
-    <t>{이승인} 편하고 튼튼하고 예쁜 티셔츠를 찾으시나요? 🐶</t>
-  </si>
-  <si>
-    <t>{이승인X라카이} 이승인의 보통날 한정판 운동화가 있다? 👟🖍</t>
-  </si>
-  <si>
-    <t>{보통날} 걸스나잇 💃🏻 자연스럽고 편안한 시간 #고기파티 #첫수영 #넷플릭스</t>
-  </si>
-  <si>
-    <t>{DIY둥} 고딩때 멨던 책가방 리폼하기 ~잠 오는 영상~</t>
-  </si>
-  <si>
-    <t>{DIY둥} 천원짜리 고무줄로 20분만에 만드는 애플워치 스트랩 ⌚️</t>
-  </si>
-  <si>
-    <t>{1리터홈카페} 펄 스무번 추가요 ~그리운 대만의 맛을 찾아서~</t>
-  </si>
-  <si>
-    <t>{혼둥술} 허니콤보🍗 + 논알콜 맥주🍺 ~이승인을 추측해보기~</t>
-  </si>
-  <si>
-    <t>{보통날} 승인님 혼자 일하세요? ~팀 이응을 소개합니다~</t>
-  </si>
-  <si>
-    <t>{DIY둥} 보라색에 미친 사람이 만드는 에어팟 케이스+키링 😈💜🔮</t>
-  </si>
-  <si>
-    <t>{이승인} 여름맞이 진주 블레이즈💎+ 어중간한 길이 탈출 붙임머리</t>
-  </si>
-  <si>
-    <t>{보통날} 늦덕 아미가 덕메들과 함께 머스터 라이브뷰잉 ~번쩍번쩍 글리터 화장 GRWM~</t>
-  </si>
-  <si>
-    <t>{이승인} 3주 다이어트 4일만에 끝내기</t>
-  </si>
-  <si>
-    <t>{이승인} 장래희망 : 유니콘🦄 ~심심한 머리에 붙임머리로 기분전환~ WITH 살롱드레드</t>
-  </si>
-  <si>
-    <t>{이승인} 예쁜 무드등과 스포츠타올 리뷰</t>
-  </si>
-  <si>
-    <t>{DIY둥} 토이스토리 앤디의 방이 내 방으로! ~장난감 소개~</t>
-  </si>
-  <si>
-    <t>{이승인} 첫 자취 생필품 초기비용은 얼마? #자취필수템추천 #5평원룸</t>
-  </si>
-  <si>
-    <t>{잠승인} #생리통 #우울😢 : 이럴 때 엄마가 해주셨던 소면국수 ~잠오는 영상~</t>
-  </si>
-  <si>
-    <t>{이승인} 대결🔥반려견 특식으로 누가 마음 홀리기🔥WITH 이즐리</t>
-  </si>
-  <si>
-    <t>{이승인} 슈퍼유투버 홍세림 화장대에서 화장하고 출근하기</t>
-  </si>
-  <si>
-    <t>{이승인} 롭스 세일 충동구매! 실패?💩 성공?🤩</t>
-  </si>
-  <si>
-    <t>{보통날} 부산 조선호텔에서 남자친구 부모님 뵐 준비 ~해운대, 더베이101 데이트~</t>
-  </si>
-  <si>
-    <t>{이승인} 최고로 멋지고 싶었던 날✨ ~남자친구 부모님 처음 뵙는 날 GRWM~</t>
-  </si>
-  <si>
-    <t>{이승인} #체육대회 #키라키라 #반짝이 #GRWM✨~체육대회 다 끝났다고요?~</t>
-  </si>
-  <si>
-    <t>{이승인} 나만의 아보카도🥑달걀후라이🍳푸디톡 폰케이스 꾸미기 WITH 샒</t>
-  </si>
-  <si>
-    <t>{이승인} 반려동물+남자친구와 함께 스튜디오 사진을📸✨</t>
-  </si>
-  <si>
-    <t>{이승인} 필름카메라 VLOG : 눈부셨던 5박6일 대만 WITH 샒</t>
-  </si>
-  <si>
-    <t>{1리터홈카페} ☘️민트가 치약맛이라니!!!!! ~민트러버 한풀이~</t>
-  </si>
-  <si>
-    <t>{이승인} 층 없이 기른 지겨운 머리 집에서 팍팍 자르기💇🏻‍♀️</t>
-  </si>
-  <si>
-    <t>{이승인} 고온다습 대만 화장 샥샥 WITH 샒</t>
-  </si>
-  <si>
-    <t>{DIY둥} 대만여행 필수템(?) : 고수좋아! 고수싫어! 티셔츠 만들기 👕☘️</t>
-  </si>
-  <si>
-    <t>{손토비} 뿌농벚꽃손토비🌸 : 봄맞이 셀프 젤네일✨</t>
-  </si>
-  <si>
-    <t>{이승인} 요즈음 울 동년배들이 다 한대서 저도 한번 해봤읍니다~^^*</t>
-  </si>
-  <si>
-    <t>{이승인없는이승인영상} 인기유투버 샒은 가방에 450만원을 들고다닌다.</t>
-  </si>
-  <si>
-    <t>{DIY둥} 손 시려운 책상🤧 초간단 양초난로 만들어서 손 녹이기🔥</t>
-  </si>
-  <si>
-    <t>{이승인} 8키로 누가와 첫 대중교통🚈#망원반려견동반식당 #목줄없는놀이터 WITH 클리오</t>
-  </si>
-  <si>
-    <t>{보통날} 모교 교복을 입고 롯데월드 데이트🎡🎢🎠🏰✨</t>
-  </si>
-  <si>
-    <t>{트둥인} ...그냥...너무 심심해서요...</t>
-  </si>
-  <si>
-    <t>{이승인} 레전드 찍은 누가 영상 메이크업+고데기 연출까지 WITH fmgt</t>
-  </si>
-  <si>
-    <t>{DIY둥} 악몽이 무서운 자취생의 드림캐쳐 만들기🌙✨</t>
-  </si>
-  <si>
-    <t>{보통날} 집순이의 얼마 남지 않은 겨울나기 WITH 이니스프리</t>
-  </si>
-  <si>
-    <t>{이승인} 한달간의 다이어트의 결말은? 커밋뷰티페스티벌 스케치 🤩</t>
-  </si>
-  <si>
-    <t>{이승인} 같이 준비해요! 커밋뷰티페스티벌 아침 GRWM 💄</t>
-  </si>
-  <si>
-    <t>{다욧둥} 벼락치기 금식🤯 : 4주차 ~49키로 달성?~</t>
-  </si>
-  <si>
-    <t>{다욧둥} 춤으로 운동💃🏻: 셋째주 ~본격적인 식이조절~</t>
-  </si>
-  <si>
-    <t>{이승인} 희용사 굿즈 판매! + 커밋뷰티 페스티벌 초대권 15장 이벤트 🎉</t>
-  </si>
-  <si>
-    <t>{보통날} 남자친구랑 개랑 카페도 가고 고기도 먹고💕~여유로운 데이트~ WITH 이니스프리</t>
-  </si>
-  <si>
-    <t>{다욧둥} 의지가 흔들흔들🤤: 둘째주 ~1일1식 지키기~</t>
-  </si>
-  <si>
-    <t>{손토비} 시럽 그라데이션🍧 ~깔끔하고 단정하고 쉽게!~</t>
-  </si>
-  <si>
-    <t>{이승인} 개는 더이상 혼자 기다리지 않아 🐶🚗</t>
-  </si>
-  <si>
-    <t>{이승인} ✂️궁디까지 기른 머리 자르기💇🏻‍♀️</t>
-  </si>
-  <si>
-    <t>{이승인} 코카스파니엘 17호 + 8호 🐶~동동이와 누가, 일주일만의 만남~</t>
-  </si>
-  <si>
-    <t>{다욧둥} 새해 다짐은 다이어트🏃🏻‍♂️ : 첫째주 ~헐리우드 48시간 도전~</t>
-  </si>
-  <si>
-    <t>{이승인} 새 식구 '누가'를 소개할게요</t>
-  </si>
-  <si>
-    <t>{DIY둥} 👚낡은 맨투맨 소매로 아기강아지 옷 만들기 🐶</t>
-  </si>
-  <si>
-    <t>{겜승인} 🌱튀동숲 3회차 ~나도 갖고 싶다... 예쁜 마을...~</t>
-  </si>
-  <si>
-    <t>{DIY둥} 귀가 움직이는 인절미 토끼 만들기🐰</t>
-  </si>
-  <si>
-    <t>{이승인} 무엇이든 대답해주는 점성술사 치미의 대답은?</t>
-  </si>
-  <si>
-    <t>{보통날} 아들딸며느리가 간다 ~서울부터 광양까지~</t>
-  </si>
-  <si>
-    <t>{1리터홈카페} 죠리퐁 처돌이 다 모엿 ~신상 호박고구마우유로 만든 죠리퐁쉐이크!~</t>
-  </si>
-  <si>
-    <t>{혼둥술} 흑당맥주와 치즈마늘양념막창 ~입시를 마친, 앞 둔 친구들에게~</t>
-  </si>
-  <si>
-    <t>{이승인} 스물아홉 자취생의 마지막 20대 떡국 끓여먹기 🐷</t>
-  </si>
-  <si>
     <t>19:39</t>
   </si>
   <si>
@@ -512,6 +275,14 @@
   </si>
   <si>
     <t>6:15</t>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -573,13 +344,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -920,15 +705,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I3" sqref="I3:I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,16 +738,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
       </c>
       <c r="D2">
         <v>87835</v>
@@ -977,18 +765,21 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
       </c>
       <c r="D3">
         <v>121222</v>
@@ -1003,18 +794,21 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
       </c>
       <c r="D4">
         <v>202738</v>
@@ -1029,18 +823,21 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
       </c>
       <c r="D5">
         <v>175940</v>
@@ -1055,18 +852,21 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
       </c>
       <c r="D6">
         <v>154171</v>
@@ -1081,18 +881,21 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.8</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
       </c>
       <c r="D7">
         <v>245036</v>
@@ -1107,18 +910,21 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
       </c>
       <c r="D8">
         <v>215121</v>
@@ -1133,18 +939,21 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
       </c>
       <c r="D9">
         <v>112979</v>
@@ -1159,18 +968,21 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
       </c>
       <c r="D10">
         <v>134502</v>
@@ -1185,18 +997,21 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
       </c>
       <c r="D11">
         <v>141592</v>
@@ -1211,18 +1026,21 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
       </c>
       <c r="D12">
         <v>173192</v>
@@ -1237,18 +1055,21 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.5</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
       </c>
       <c r="D13">
         <v>697971</v>
@@ -1263,18 +1084,21 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
       </c>
       <c r="D14">
         <v>214654</v>
@@ -1289,18 +1113,21 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.5</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
       </c>
       <c r="D15">
         <v>79157</v>
@@ -1315,18 +1142,21 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
       </c>
       <c r="D16">
         <v>182732</v>
@@ -1341,18 +1171,21 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.5</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
       </c>
       <c r="D17">
         <v>349990</v>
@@ -1367,18 +1200,21 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
       </c>
       <c r="D18">
         <v>98039</v>
@@ -1393,18 +1229,21 @@
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
       </c>
       <c r="D19">
         <v>141167</v>
@@ -1419,18 +1258,21 @@
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
       </c>
       <c r="D20">
         <v>106834</v>
@@ -1445,18 +1287,21 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
       </c>
       <c r="D21">
         <v>122461</v>
@@ -1471,18 +1316,21 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
       </c>
       <c r="D22">
         <v>111598</v>
@@ -1497,18 +1345,21 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
       </c>
       <c r="D23">
         <v>281169</v>
@@ -1523,18 +1374,21 @@
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
       </c>
       <c r="D24">
         <v>152249</v>
@@ -1549,18 +1403,21 @@
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
       </c>
       <c r="D25">
         <v>384591</v>
@@ -1575,18 +1432,21 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.5</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
       </c>
       <c r="D26">
         <v>210430</v>
@@ -1601,18 +1461,21 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
       </c>
       <c r="D27">
         <v>152457</v>
@@ -1627,18 +1490,21 @@
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
       </c>
       <c r="D28">
         <v>344082</v>
@@ -1653,18 +1519,21 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.5</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
       </c>
       <c r="D29">
         <v>143324</v>
@@ -1679,18 +1548,21 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.5</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
       </c>
       <c r="D30">
         <v>121993</v>
@@ -1705,18 +1577,21 @@
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.5</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
       </c>
       <c r="D31">
         <v>174097</v>
@@ -1731,18 +1606,21 @@
         <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.5</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
       </c>
       <c r="D32">
         <v>118097</v>
@@ -1757,18 +1635,21 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
       </c>
       <c r="D33">
         <v>103959</v>
@@ -1783,18 +1664,21 @@
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I33">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
       </c>
       <c r="D34">
         <v>836534</v>
@@ -1809,18 +1693,21 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.5</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
       </c>
       <c r="D35">
         <v>688479</v>
@@ -1835,18 +1722,21 @@
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I35">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
       </c>
       <c r="D36">
         <v>165722</v>
@@ -1861,18 +1751,21 @@
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.5</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
       </c>
       <c r="D37">
         <v>55282</v>
@@ -1887,18 +1780,21 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2.8</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
       </c>
       <c r="D38">
         <v>172187</v>
@@ -1913,18 +1809,21 @@
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I38">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.5</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
       </c>
       <c r="D39">
         <v>63089</v>
@@ -1939,18 +1838,21 @@
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I39">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.5</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
       </c>
       <c r="D40">
         <v>285354</v>
@@ -1965,18 +1867,21 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I40">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.5</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
       </c>
       <c r="D41">
         <v>280914</v>
@@ -1991,18 +1896,21 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
       </c>
       <c r="D42">
         <v>83880</v>
@@ -2017,18 +1925,21 @@
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I42">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.5</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
       </c>
       <c r="D43">
         <v>232224</v>
@@ -2043,18 +1954,21 @@
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I43">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.8</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
       </c>
       <c r="D44">
         <v>151870</v>
@@ -2069,18 +1983,21 @@
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I44">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3.5</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
+      <c r="B45">
         <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
       </c>
       <c r="D45">
         <v>123055</v>
@@ -2095,18 +2012,21 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I45">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.5</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
       </c>
       <c r="D46">
         <v>212306</v>
@@ -2121,18 +2041,21 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.5</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
       </c>
       <c r="D47">
         <v>490624</v>
@@ -2147,18 +2070,21 @@
         <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I47">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.5</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
       </c>
       <c r="D48">
         <v>166552</v>
@@ -2173,18 +2099,21 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I48">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3.5</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
+      <c r="B49">
         <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
       </c>
       <c r="D49">
         <v>200038</v>
@@ -2199,18 +2128,21 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I49">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.5</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
       </c>
       <c r="D50">
         <v>122762</v>
@@ -2225,18 +2157,21 @@
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I50">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.5</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
       </c>
       <c r="D51">
         <v>137352</v>
@@ -2251,18 +2186,21 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I51">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.5</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
       </c>
       <c r="D52">
         <v>269026</v>
@@ -2277,18 +2215,21 @@
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I52">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.5</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
       </c>
       <c r="D53">
         <v>127093</v>
@@ -2303,18 +2244,21 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I53">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.8</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
       </c>
       <c r="D54">
         <v>159372</v>
@@ -2329,18 +2273,21 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I54">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3.5</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
       </c>
       <c r="D55">
         <v>167707</v>
@@ -2355,18 +2302,21 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I55">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2.5</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>85</v>
       </c>
       <c r="D56">
         <v>140999</v>
@@ -2381,18 +2331,21 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I56">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2.8</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
       </c>
       <c r="D57">
         <v>188022</v>
@@ -2407,18 +2360,21 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I57">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.5</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
       </c>
       <c r="D58">
         <v>113676</v>
@@ -2433,18 +2389,21 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I58">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.5</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
       </c>
       <c r="D59">
         <v>351863</v>
@@ -2459,18 +2418,21 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I59">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.5</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
       </c>
       <c r="D60">
         <v>77190</v>
@@ -2485,18 +2447,21 @@
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I60">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.5</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
       </c>
       <c r="D61">
         <v>147932</v>
@@ -2511,18 +2476,21 @@
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I61">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.5</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
       </c>
       <c r="D62">
         <v>159760</v>
@@ -2537,18 +2505,21 @@
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I62">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.5</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
       </c>
       <c r="D63">
         <v>112508</v>
@@ -2563,18 +2534,21 @@
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I63">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2.5</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
       </c>
       <c r="D64">
         <v>84064</v>
@@ -2589,18 +2563,21 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I64">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3.8</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
       </c>
       <c r="D65">
         <v>286208</v>
@@ -2615,18 +2592,21 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I65">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.5</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
       </c>
       <c r="D66">
         <v>123889</v>
@@ -2641,18 +2621,21 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I66">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.5</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
       </c>
       <c r="D67">
         <v>93440</v>
@@ -2667,18 +2650,21 @@
         <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I67">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.8</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
       </c>
       <c r="D68">
         <v>145402</v>
@@ -2693,18 +2679,21 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I68">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.5</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
       </c>
       <c r="D69">
         <v>276269</v>
@@ -2719,18 +2708,21 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I69">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1.8</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
       </c>
       <c r="D70">
         <v>321673</v>
@@ -2745,18 +2737,21 @@
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="I70">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.5</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
       </c>
       <c r="D71">
         <v>197128</v>
@@ -2771,18 +2766,21 @@
         <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I71">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2.8</v>
       </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
       </c>
       <c r="D72">
         <v>589512</v>
@@ -2797,18 +2795,21 @@
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I72">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.5</v>
       </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
       </c>
       <c r="D73">
         <v>92244</v>
@@ -2823,18 +2824,21 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="I73">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.5</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
       </c>
       <c r="D74">
         <v>50428</v>
@@ -2849,18 +2853,21 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I74">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.5</v>
       </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
       </c>
       <c r="D75">
         <v>164096</v>
@@ -2875,18 +2882,21 @@
         <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I75">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2.5</v>
       </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
       </c>
       <c r="D76">
         <v>148540</v>
@@ -2901,18 +2911,21 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="I76">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.8</v>
       </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
       </c>
       <c r="D77">
         <v>151878</v>
@@ -2927,18 +2940,21 @@
         <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="I77">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.5</v>
       </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
       </c>
       <c r="D78">
         <v>108567</v>
@@ -2953,18 +2969,21 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="I78">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.5</v>
       </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
       </c>
       <c r="D79">
         <v>99243</v>
@@ -2979,18 +2998,21 @@
         <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I79">
+        <v>470000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.5</v>
       </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
       </c>
       <c r="D80">
         <v>135412</v>
@@ -3005,7 +3027,10 @@
         <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>163</v>
+        <v>84</v>
+      </c>
+      <c r="I80">
+        <v>470000</v>
       </c>
     </row>
   </sheetData>
